--- a/data/hotels_by_city/Denver/Denver_shard_213.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_213.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33329-d124122-Reviews-Quality_Inn-Brighton_Colorado.html</t>
   </si>
   <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Brighton-Hotels-Quality-Inn.h41756.Hotel-Information?chkin=4%2F22%2F2018&amp;chkout=4%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1523575476827&amp;regionId=178254&amp;vip=false&amp;c=77701ef1-5f0d-4333-9c7f-abc8aac06baf&amp;mctc=9&amp;exp_dp=89.1&amp;exp_ts=1523575477352&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,591 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r502924286-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33329</t>
+  </si>
+  <si>
+    <t>124122</t>
+  </si>
+  <si>
+    <t>502924286</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Noisy traffic but nice room</t>
+  </si>
+  <si>
+    <t>The rooms were very clean but it is next to a busy highway. The traffic kept us awake and so did the trains that passed by every so often. But the bed was comfortable, the room was nice, and I enjoyed my stay. Beware of the fake fruit at the breakfast bar!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r497798626-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>497798626</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Nice Room</t>
+  </si>
+  <si>
+    <t>But the hotel and common spaces are heavily worn. The included breakfast was adequate but not exceptional. I think this particular facility needs to. In order to be competitive with others in the same price range.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r494650345-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>494650345</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>BAD SERVICE THEY DON'T CARE THAT YOU HAVE A CONFIRMED RESERVATION</t>
+  </si>
+  <si>
+    <t>We booked this room on the night of June 14, 2017. We showed up to the property around 11:30 pm at night with our 3 kids ranging in age from 6 months to 8 years old. We were tired and ready to check in . We go to the desk and a young gentleman is ready to check us in he is in the  process of looking for our reservation when a young lady interrupts him and says that she will take care of us. I say ok preparing to get my ID and credit card out when she says she can't find the reservation. I give her my confirmation number and show her the reservation on my phone, and she tells me oh ok, I have a room left. She immediately stops says she has to call her manager. I wait for her to call her manager, she tells me her manager says we don't have a reservation, and I should call Choice. I said so are you going to give us that room you have left ? (it was a busy night in town, and I couldn't find anywhere that had any rooms that late at night) she said, No we aren't. We dont have your reservation even though I had a confirmation number. At this point I become upset told her Yes I would be calling Choice because it is now midnight and you refuse to give...We booked this room on the night of June 14, 2017. We showed up to the property around 11:30 pm at night with our 3 kids ranging in age from 6 months to 8 years old. We were tired and ready to check in . We go to the desk and a young gentleman is ready to check us in he is in the  process of looking for our reservation when a young lady interrupts him and says that she will take care of us. I say ok preparing to get my ID and credit card out when she says she can't find the reservation. I give her my confirmation number and show her the reservation on my phone, and she tells me oh ok, I have a room left. She immediately stops says she has to call her manager. I wait for her to call her manager, she tells me her manager says we don't have a reservation, and I should call Choice. I said so are you going to give us that room you have left ? (it was a busy night in town, and I couldn't find anywhere that had any rooms that late at night) she said, No we aren't. We dont have your reservation even though I had a confirmation number. At this point I become upset told her Yes I would be calling Choice because it is now midnight and you refuse to give me the room I reserved. I call Choice and after about 10-15 minutes I convince a supervisor to call the property and ask why they wouldn't give me the room I reserved . At this point the young gentleman was the only one at the desk he talks to Choice and they convince him to give me a room. We come inside to check in,  he gets us checked in..its been a long day so I need to run over to the Walmart across the street to get milk for my baby who at this point is screaming because it is near 1:00 am. We get the milk, drive back to the hotel,  unload our car, make it up the stairs to our room on second floor, open the door, and another persons items are in the room. The lights are on and it looks like somebody else has just been in this room. ( They rented out our room when we were gone!) We get all of our stuff together go downstairs to the lobby to ask why our room we just spent an hour and half arguing over was re rented out , and the desk clerk denied that it was . He offered to come upstairs and remove the guests items for me because at this point we were so so tired and upset.  He removes the other customers items and we are tired so we don't even worry about the used room he put us in.  Thank GOD the beds were still made.In the morning my husband went to the desk to complain and get a receipt for the night, and the desk clerk was just plain rude . She didn't apologize when he told her of the trouble we had , At this point the owner a person of Korean or Chinese descent came from somewhere and my husband tried to explain to her what happened she blew him off, told him she was renting rooms for more money than what were paying last night ...which angered my husband and an argument ensued. The owner and the manager then screamed at him to GET OUT. After all of this and the night we had we expected at least an apology.. not to be told to GET OUT. We told her we would be letting everyone we know and social media know about our experience. She informed him that SHE DID NOT CARE. I think its important to let you all know of the trouble we had because I think this property needs to be EDUCATED on how to properly treat a paying guest with a confirmed reservation.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked this room on the night of June 14, 2017. We showed up to the property around 11:30 pm at night with our 3 kids ranging in age from 6 months to 8 years old. We were tired and ready to check in . We go to the desk and a young gentleman is ready to check us in he is in the  process of looking for our reservation when a young lady interrupts him and says that she will take care of us. I say ok preparing to get my ID and credit card out when she says she can't find the reservation. I give her my confirmation number and show her the reservation on my phone, and she tells me oh ok, I have a room left. She immediately stops says she has to call her manager. I wait for her to call her manager, she tells me her manager says we don't have a reservation, and I should call Choice. I said so are you going to give us that room you have left ? (it was a busy night in town, and I couldn't find anywhere that had any rooms that late at night) she said, No we aren't. We dont have your reservation even though I had a confirmation number. At this point I become upset told her Yes I would be calling Choice because it is now midnight and you refuse to give...We booked this room on the night of June 14, 2017. We showed up to the property around 11:30 pm at night with our 3 kids ranging in age from 6 months to 8 years old. We were tired and ready to check in . We go to the desk and a young gentleman is ready to check us in he is in the  process of looking for our reservation when a young lady interrupts him and says that she will take care of us. I say ok preparing to get my ID and credit card out when she says she can't find the reservation. I give her my confirmation number and show her the reservation on my phone, and she tells me oh ok, I have a room left. She immediately stops says she has to call her manager. I wait for her to call her manager, she tells me her manager says we don't have a reservation, and I should call Choice. I said so are you going to give us that room you have left ? (it was a busy night in town, and I couldn't find anywhere that had any rooms that late at night) she said, No we aren't. We dont have your reservation even though I had a confirmation number. At this point I become upset told her Yes I would be calling Choice because it is now midnight and you refuse to give me the room I reserved. I call Choice and after about 10-15 minutes I convince a supervisor to call the property and ask why they wouldn't give me the room I reserved . At this point the young gentleman was the only one at the desk he talks to Choice and they convince him to give me a room. We come inside to check in,  he gets us checked in..its been a long day so I need to run over to the Walmart across the street to get milk for my baby who at this point is screaming because it is near 1:00 am. We get the milk, drive back to the hotel,  unload our car, make it up the stairs to our room on second floor, open the door, and another persons items are in the room. The lights are on and it looks like somebody else has just been in this room. ( They rented out our room when we were gone!) We get all of our stuff together go downstairs to the lobby to ask why our room we just spent an hour and half arguing over was re rented out , and the desk clerk denied that it was . He offered to come upstairs and remove the guests items for me because at this point we were so so tired and upset.  He removes the other customers items and we are tired so we don't even worry about the used room he put us in.  Thank GOD the beds were still made.In the morning my husband went to the desk to complain and get a receipt for the night, and the desk clerk was just plain rude . She didn't apologize when he told her of the trouble we had , At this point the owner a person of Korean or Chinese descent came from somewhere and my husband tried to explain to her what happened she blew him off, told him she was renting rooms for more money than what were paying last night ...which angered my husband and an argument ensued. The owner and the manager then screamed at him to GET OUT. After all of this and the night we had we expected at least an apology.. not to be told to GET OUT. We told her we would be letting everyone we know and social media know about our experience. She informed him that SHE DID NOT CARE. I think its important to let you all know of the trouble we had because I think this property needs to be EDUCATED on how to properly treat a paying guest with a confirmed reservation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r436165558-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>436165558</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Worn but clean</t>
+  </si>
+  <si>
+    <t>Stayed at the Comfort Inn the first part of November. The property is older and it shows,  first in the lobby with the wallpaper seams coming apart. The hallways are pretty beat up from the housekeeping carts  banging against them over the years. The rooms have a dated look with old furniture and curtains that don't keep the light out. Our room was clean and the bed was comfortable with nice linens. Sits between a highway and railroad tracks so not the quietest location. Had a typical breakfast for these type of hotels which I don't use.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Comfort I, General Manager at Quality Inn, responded to this reviewResponded November 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2016</t>
+  </si>
+  <si>
+    <t>Stayed at the Comfort Inn the first part of November. The property is older and it shows,  first in the lobby with the wallpaper seams coming apart. The hallways are pretty beat up from the housekeeping carts  banging against them over the years. The rooms have a dated look with old furniture and curtains that don't keep the light out. Our room was clean and the bed was comfortable with nice linens. Sits between a highway and railroad tracks so not the quietest location. Had a typical breakfast for these type of hotels which I don't use.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r419635690-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>419635690</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>Very pleased!</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for two nights while attending a family wedding in Brighton, Co and were very pleased with the room and the breakfast they had.  The bed was very comfortable and the facility was very neat and clean will stay again here next time in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for two nights while attending a family wedding in Brighton, Co and were very pleased with the room and the breakfast they had.  The bed was very comfortable and the facility was very neat and clean will stay again here next time in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r410048427-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>410048427</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Mixed Feelings</t>
+  </si>
+  <si>
+    <t>This is an older property which for the most part is well maintained.  The rooms are a bit small, but the beds were comfortable and we slept well.  The rooms do have a refrigerator.  The indoor pool was well maintained and both the pool and spa had lifts for disabled persons.  Breakfast was on par for this type of hotel and good.I would have rated the hotel higher, but we did have some issues at check-in.  The original rooms we were given (212 &amp; 214) both had damaged doors which had been poorly repaired and had a half inch (or wider) opening which ran from the floor up about 18 inches--could easily see into the room and would have been even easier to pry the door open.  The desk clerk was apparently the only one working in the hotel at the time and it took almost 30 minutes to find her and get two replacement rooms.  I had time to walk the first and second floors and these were the only two rooms with damaged doors.  I believe these rooms should have been taken out of service until properly repaired, but they were given to other guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>This is an older property which for the most part is well maintained.  The rooms are a bit small, but the beds were comfortable and we slept well.  The rooms do have a refrigerator.  The indoor pool was well maintained and both the pool and spa had lifts for disabled persons.  Breakfast was on par for this type of hotel and good.I would have rated the hotel higher, but we did have some issues at check-in.  The original rooms we were given (212 &amp; 214) both had damaged doors which had been poorly repaired and had a half inch (or wider) opening which ran from the floor up about 18 inches--could easily see into the room and would have been even easier to pry the door open.  The desk clerk was apparently the only one working in the hotel at the time and it took almost 30 minutes to find her and get two replacement rooms.  I had time to walk the first and second floors and these were the only two rooms with damaged doors.  I believe these rooms should have been taken out of service until properly repaired, but they were given to other guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r394542008-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>394542008</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>Clean bathroom room pool and lobby area</t>
+  </si>
+  <si>
+    <t>Very comfortable bed's friendly helpful staff, great pool and hot tub, good breakfast A bit pricey, but well worth the extra dollars. Appears to be in a safe neighborhood. Parking a little crowded but free and adequate. Refrigerator microwave flatscreen TV. Great mirrors. Air conditioning.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r390268212-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>390268212</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>ABCD Award for Claudia!</t>
+  </si>
+  <si>
+    <t>I have to give huge thanks to Claudia for letting me store some boxes needed for business between trips.  Without her going Above &amp; Beyond the Call of Duty I honestly don't know what I would have done?!  They really didn't have much room but she let me leave them there anyway &amp; really got me out of a jam.  It's customer service like that - that will keep me coming back to this location.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r388090701-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>388090701</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>3 stars that's all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel is located on busy highway. Rooms do not have darkening curtains.  Daybreak is well before 5:30. Our nonsmoking room on third floor is reminiscent of a prior smoking.  Overall hotel is clean, moderately updated, comfortable beds and nice breakfast. Limited front desk staff.   Very courteous and helpful when needed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r369388664-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>369388664</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>dump,dump,dump</t>
+  </si>
+  <si>
+    <t>LOUD next to highway, bathtub sounds like you are falling through floor, shower head is a piece of junk and water must be so hot to mix it it burns you. Floors are dug up downstairs . Eating area covered in plastic. Waffles were good. Light in bathroom is so dim a candle does more good. TV has no guides. Lots of channels, but must surf and guess what is on. Just a dump. Won`t return here again. Wife was so upset and I don`t blame her. Just a dump.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r350403833-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>350403833</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Passing through Denver area and this hotel was was a nice place to stay .Nice friendly staff, a clean comfortable room, and a good hot breakfast. This is what brings people back. Now a days the term " you get what you pay for " is a lot to ask it seems. Well here you do!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r336778997-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>336778997</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel with Great Prices</t>
+  </si>
+  <si>
+    <t>I travel to this area quite a bit and decided to finally write a review. Every time I come, the staff is friendly and great, breakfast is good, and amenities are clean. Every room has a nice bed, wifi, and sleek TV. I would highly recommend!</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r274532325-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>274532325</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Everything about this hotel is lovely! The staff is super friendly and helpful, the maids do such a good job leaving the rooms very neat. The breakfast is always great and well maintained. I would stay here over and over again.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r258221420-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>258221420</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>The staff has made this place a home away from home.</t>
+  </si>
+  <si>
+    <t>This was my second stay, after a terrible flight I walked in the doors quite late and was greeted by friendly familiar faces. I was given a coffee and my beautiful room (122 fave!!)I spent some time each day chatting with the ladies, they helped me find my way around town. I was sad to leave.Amie, Terri and of course Jessica who went out of her way to speak to my family while I was lost 6 hours away! You ladies are great and I always look forward to seeing you!!I'll be heading back in the summer this time for longer, I can't wait!!!If you want a hotel where you are treated like a friend Comfort Inn Brighton is the place you want to go!!!I'd give you 10 stars if I could!!All the best to you girls, see you soon.Warm regardsAnne MarieMoreShow less</t>
+  </si>
+  <si>
+    <t>This was my second stay, after a terrible flight I walked in the doors quite late and was greeted by friendly familiar faces. I was given a coffee and my beautiful room (122 fave!!)I spent some time each day chatting with the ladies, they helped me find my way around town. I was sad to leave.Amie, Terri and of course Jessica who went out of her way to speak to my family while I was lost 6 hours away! You ladies are great and I always look forward to seeing you!!I'll be heading back in the summer this time for longer, I can't wait!!!If you want a hotel where you are treated like a friend Comfort Inn Brighton is the place you want to go!!!I'd give you 10 stars if I could!!All the best to you girls, see you soon.Warm regardsAnne MarieMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r250034113-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>250034113</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>Loved everything about this place</t>
+  </si>
+  <si>
+    <t>My stay here was just as comfortable if not more comfortable then my own home.Every morning I was greeted by the friendly staff, my favourite being Jessica.She was happy, friendly  and very helpful. I am visiting again in a couple weeks and am staying here again!!! Very excited!!!!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r233856026-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>233856026</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>The room were very clean and comfortable  with new carpet and drape. My kids enjoyed swimming pool  and free breakfast which comes bacon, scrambled egg, waffle etc..We enjoyed our stay and would stay again</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r230198294-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>230198294</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>$25.00 per pet!!!!!!!    I have 3 small Yorkies 2 under 5 lbs and 1, 9 lbs</t>
+  </si>
+  <si>
+    <t>I really don't understand how these places can charge so much per pet!!!!!   I asked the lady if they GROOMED them!!!!!   Can someone please tell me why if you have 1 pet it's $25.00, which is for a cleaning fee, how 2 more pets would cost an additional $25 to clean up after!!!!!!   The other bad part is they charge TAX on a pet fee!!!!   And it's not regular tax its hotel tax which is so much higher!!!  I have no problems paying for a pet fee, I just don't understand how my pets can cost more to be in the room then it cost me for the room!!!!!   I clean up after my pets if they have any accidents, I carry carpet cleaner with me.MoreShow less</t>
+  </si>
+  <si>
+    <t>I really don't understand how these places can charge so much per pet!!!!!   I asked the lady if they GROOMED them!!!!!   Can someone please tell me why if you have 1 pet it's $25.00, which is for a cleaning fee, how 2 more pets would cost an additional $25 to clean up after!!!!!!   The other bad part is they charge TAX on a pet fee!!!!   And it's not regular tax its hotel tax which is so much higher!!!  I have no problems paying for a pet fee, I just don't understand how my pets can cost more to be in the room then it cost me for the room!!!!!   I clean up after my pets if they have any accidents, I carry carpet cleaner with me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r215228911-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>215228911</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>Love the service</t>
+  </si>
+  <si>
+    <t>The front dask staff is kind &amp; very helpful, extremely resourceful, quick to help. They actually cook sausage links, scrambled eggs &amp; gravy themselves. The beds &amp; pillows are very comfortable, room clean...</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r197431935-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>197431935</t>
+  </si>
+  <si>
+    <t>03/14/2014</t>
+  </si>
+  <si>
+    <t>Frequent guest love the staff and value</t>
+  </si>
+  <si>
+    <t>I love comming to this comfort inn. I come here with my company every few months or so, and come compared to where the company usually puts us this is a breath of fresh air!!! I usually see amy, stephanie, or Terry up at the front and its always pleasent to talk to them. Very nice people. The rooms are updated!!!! which is really awsome all new bedding, curtains, and carpet! The breakfast is always getting better everytime i go too! Last time they had make your own breakfast burritos! really neat. I just wish their chilie was vegitarian. This is a LONG needed review for this wonderful inn.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r195621929-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>195621929</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>above and beyond</t>
+  </si>
+  <si>
+    <t>I have never received such kindness from a stranger before. I flew in from California for an interview and being unfamiliar with the area an employee of Comfort Inn, Amie, helped me find bus routes and shuttle services. When these sources proved to be unreliable, Amie offered to take me to the interview herself, in her own car at 7 in the morning. She didn't need to be at work till later in the day so i was grateful. I gave her a call when the interview was over hoping she could pick me up. She did show up but I ended up making her late for work. She and I were both worried, needless to say. All in all, everything worked out.Plus, I was hired on the spot :) Thanks Amie, for going above and beyond for me.Also, this hotel is so clean as soon as i walked in it smelled lemony fresh. ;)MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>I have never received such kindness from a stranger before. I flew in from California for an interview and being unfamiliar with the area an employee of Comfort Inn, Amie, helped me find bus routes and shuttle services. When these sources proved to be unreliable, Amie offered to take me to the interview herself, in her own car at 7 in the morning. She didn't need to be at work till later in the day so i was grateful. I gave her a call when the interview was over hoping she could pick me up. She did show up but I ended up making her late for work. She and I were both worried, needless to say. All in all, everything worked out.Plus, I was hired on the spot :) Thanks Amie, for going above and beyond for me.Also, this hotel is so clean as soon as i walked in it smelled lemony fresh. ;)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r195618114-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>195618114</t>
+  </si>
+  <si>
+    <t>Room was nice, building dated, okay breakfast</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 days on a work trip.  The room itself was nice- comfortable bed and a selection of firm and soft pillows to choose from.  Everything was clean.  Nothing fantastic but nothing wrong with it, either.  The breakfast was just okay, a couple hot food choices every morning, cereal, yogurt, waffles, some fruit.  The building itself was quite dated and smelled old, but not stinky or dirty or anything like that. The stay was nice, but I did expect a little more from the flagship brand of choice hotels...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r182238192-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>182238192</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>I was extremely impressed with the cleanness of the hotel.  I often stay at various Choice properties including Quality, Comofort Suites, Sleep Inn and so on.  Most of them are just O.K.  However, it' should be obvious to experienced travellers like myself that this particular Comfort Inn does pride itself keeping the property in top shape and form.  People employed there were very friendly and nice as well.  Good comfy stay.  Thanks.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r180845316-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>180845316</t>
+  </si>
+  <si>
+    <t>10/13/2013</t>
+  </si>
+  <si>
+    <t>Comfortable beds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bed are comfortable and the rooms are clean.  They need to lighten up on the heavy incense they have burning.  It is too heavy and makes you wonder what they are trying to cover up.  The breakfast is great!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r176393918-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>176393918</t>
+  </si>
+  <si>
+    <t>09/08/2013</t>
+  </si>
+  <si>
+    <t>Okay, but on the lower end of the Comfort Inn's that I have been to</t>
+  </si>
+  <si>
+    <t>This hotel was a bit North of the Interstate.  My first impression was that it seemed there were a lot of people staying there are a regular basis, and not all were there just passing through.  I would guess half of those that stay there are workers that are more full time spending multiple nights there.  Lost of service trucks and pick ups parked in the lot.  Think they are oil oriented workers.The breakfast was adequate. Accomodations average to just a tad better.  Checkin was okay.  Room was clean, but nothing special.  We did not check into the other options, but this one seemed to be adequate, but if there are others available closer to the interstate at or about the same price, I probably would check my other options out.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>This hotel was a bit North of the Interstate.  My first impression was that it seemed there were a lot of people staying there are a regular basis, and not all were there just passing through.  I would guess half of those that stay there are workers that are more full time spending multiple nights there.  Lost of service trucks and pick ups parked in the lot.  Think they are oil oriented workers.The breakfast was adequate. Accomodations average to just a tad better.  Checkin was okay.  Room was clean, but nothing special.  We did not check into the other options, but this one seemed to be adequate, but if there are others available closer to the interstate at or about the same price, I probably would check my other options out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r171929287-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>171929287</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We did not have reservations at this hotel, but we were able to call and hold a room for 1.5 hours because we were en route and weren't sure of arrival time. Easy to find off of the highway. Very nice and informative front desk staff (Stephanie). We enjoyed the 24 hour complimentary coffee and tea. Breakfast was averge, but free and held us over until the early afternoon. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r167161834-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>167161834</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>A needed nights rest</t>
+  </si>
+  <si>
+    <t>We were traveling back to Texas reference a medical emergency and found this motel by internet search.  We called looking for a room after driving 787 miles today.  The receptionist I talked to was very understanding and considerate to our needs during the initial call and also upon check in.  The room was clean and comfortable.  The pillows were firmer than preferred.  The indoor pool was clean, clear and adequately stocked with clean towels.  Our request of a rollaway bed was attended to right after we got into the room.  The breakfast was the expected eggs, bacon and cereal. Our stay was average.   The bright part of the stay was the receptionist and how helpful she was.  We would stay here again if we were in the area.  A Sonic and a Arby's is next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We were traveling back to Texas reference a medical emergency and found this motel by internet search.  We called looking for a room after driving 787 miles today.  The receptionist I talked to was very understanding and considerate to our needs during the initial call and also upon check in.  The room was clean and comfortable.  The pillows were firmer than preferred.  The indoor pool was clean, clear and adequately stocked with clean towels.  Our request of a rollaway bed was attended to right after we got into the room.  The breakfast was the expected eggs, bacon and cereal. Our stay was average.   The bright part of the stay was the receptionist and how helpful she was.  We would stay here again if we were in the area.  A Sonic and a Arby's is next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r161553382-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>161553382</t>
+  </si>
+  <si>
+    <t>05/22/2013</t>
+  </si>
+  <si>
+    <t>Use the Front Door</t>
+  </si>
+  <si>
+    <t>When you approach the hotel from the south, you'll need to turn left onto Bromley Ln. and then left into the hotel.  This will put you at the back door, which is labeled to indicate that you can use it to access the lobby and for check in.  Unfortunately, when we did this, the front desk clerk was taking a break in the front of the hotel.  She could not see us at the registration desk and did not hear us ringing the bell.  We finally called the number on the business card at the desk and she immediately came in an apologized, but at the end of a 12 hour drive, I'm afraid I was still a little underwhelmed.  
+The room was OK and clean, but we could clearly hear a conversation being carried on in an adjacent room.  The bed was comfortable and we found the area quiet at night.  We didn't hear any train noise, but we were on the side of the hotel facing away from the track.  
+Breakfast was OK but the orange juice dispenser seemed to have only orange flavored water.  Breakfast items were what you would expect at a Comfort Inn.  Although the breakfast room opend at 5:30 AM, the staff still seemed to be setting it up at 6:30.
+The location was good for us and allowed us to leave the Denver area in the morning without having to deal with rush...When you approach the hotel from the south, you'll need to turn left onto Bromley Ln. and then left into the hotel.  This will put you at the back door, which is labeled to indicate that you can use it to access the lobby and for check in.  Unfortunately, when we did this, the front desk clerk was taking a break in the front of the hotel.  She could not see us at the registration desk and did not hear us ringing the bell.  We finally called the number on the business card at the desk and she immediately came in an apologized, but at the end of a 12 hour drive, I'm afraid I was still a little underwhelmed.  The room was OK and clean, but we could clearly hear a conversation being carried on in an adjacent room.  The bed was comfortable and we found the area quiet at night.  We didn't hear any train noise, but we were on the side of the hotel facing away from the track.  Breakfast was OK but the orange juice dispenser seemed to have only orange flavored water.  Breakfast items were what you would expect at a Comfort Inn.  Although the breakfast room opend at 5:30 AM, the staff still seemed to be setting it up at 6:30.The location was good for us and allowed us to leave the Denver area in the morning without having to deal with rush hour traffic.  If I went back to Brighton, I think I'd try another hotel, mostly because the staff didn't seem to care whether we were there or not.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>When you approach the hotel from the south, you'll need to turn left onto Bromley Ln. and then left into the hotel.  This will put you at the back door, which is labeled to indicate that you can use it to access the lobby and for check in.  Unfortunately, when we did this, the front desk clerk was taking a break in the front of the hotel.  She could not see us at the registration desk and did not hear us ringing the bell.  We finally called the number on the business card at the desk and she immediately came in an apologized, but at the end of a 12 hour drive, I'm afraid I was still a little underwhelmed.  
+The room was OK and clean, but we could clearly hear a conversation being carried on in an adjacent room.  The bed was comfortable and we found the area quiet at night.  We didn't hear any train noise, but we were on the side of the hotel facing away from the track.  
+Breakfast was OK but the orange juice dispenser seemed to have only orange flavored water.  Breakfast items were what you would expect at a Comfort Inn.  Although the breakfast room opend at 5:30 AM, the staff still seemed to be setting it up at 6:30.
+The location was good for us and allowed us to leave the Denver area in the morning without having to deal with rush...When you approach the hotel from the south, you'll need to turn left onto Bromley Ln. and then left into the hotel.  This will put you at the back door, which is labeled to indicate that you can use it to access the lobby and for check in.  Unfortunately, when we did this, the front desk clerk was taking a break in the front of the hotel.  She could not see us at the registration desk and did not hear us ringing the bell.  We finally called the number on the business card at the desk and she immediately came in an apologized, but at the end of a 12 hour drive, I'm afraid I was still a little underwhelmed.  The room was OK and clean, but we could clearly hear a conversation being carried on in an adjacent room.  The bed was comfortable and we found the area quiet at night.  We didn't hear any train noise, but we were on the side of the hotel facing away from the track.  Breakfast was OK but the orange juice dispenser seemed to have only orange flavored water.  Breakfast items were what you would expect at a Comfort Inn.  Although the breakfast room opend at 5:30 AM, the staff still seemed to be setting it up at 6:30.The location was good for us and allowed us to leave the Denver area in the morning without having to deal with rush hour traffic.  If I went back to Brighton, I think I'd try another hotel, mostly because the staff didn't seem to care whether we were there or not.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r127092107-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>127092107</t>
+  </si>
+  <si>
+    <t>04/01/2012</t>
+  </si>
+  <si>
+    <t>Nice staff! Great service!</t>
+  </si>
+  <si>
+    <t>you guys are silly, if your staying at a hotel that allows certain rooms to smoke, you can expect that the rooms next to it might smell of cigarette, thats common sense, a hotel cannot control a train, if the building is next to a train you can only assume that you might hear a train, again common sense, i swear people leave their brain at home when they travel,(lol) I personally love this hotel, the staff is very friendly, this last time passing through (last sunday) I was helped by stephany at the front desk, she was very helpful, she helped me load and un-load my bags.( Good service can be hard to find.) The hottub was wonderful, and my room was very clean and had a nice-sized flat screen in the room, the breakfast, however needs bacon. I will be back :)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>you guys are silly, if your staying at a hotel that allows certain rooms to smoke, you can expect that the rooms next to it might smell of cigarette, thats common sense, a hotel cannot control a train, if the building is next to a train you can only assume that you might hear a train, again common sense, i swear people leave their brain at home when they travel,(lol) I personally love this hotel, the staff is very friendly, this last time passing through (last sunday) I was helped by stephany at the front desk, she was very helpful, she helped me load and un-load my bags.( Good service can be hard to find.) The hottub was wonderful, and my room was very clean and had a nice-sized flat screen in the room, the breakfast, however needs bacon. I will be back :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r121434519-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>121434519</t>
+  </si>
+  <si>
+    <t>12/05/2011</t>
+  </si>
+  <si>
+    <t>Adequate, but not first choice next time.</t>
+  </si>
+  <si>
+    <t>Adequate and clean, but seemed just a notch lower than most other Comfort Inns.  Courteous, but slow check in, smaller room, and breakfast not continuously supplied.  We arrived in the breakfast room with 20 minutes left, but they were out of hot food except a pan of gravy; out of pancake batter, no sausages, no biscuits, and one empty coffee decanter, with no attendant in sight.  We managed fine with cold cereal, but was looking forward to their advertised hot breakfast on such a cold morning.  Attendant arrived as we walked out 30 minutes later.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r116593354-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>116593354</t>
+  </si>
+  <si>
+    <t>08/11/2011</t>
+  </si>
+  <si>
+    <t>Very Clean! Nice Swimming Pool! Good Rates!</t>
+  </si>
+  <si>
+    <t>Stayed here for one night and everything was great. Friendly staff and a clean hotel. The room was a large size with flat screen TV, fridge, micorwave, coffee machine etc. The rooms were nicely furnished, comfy beds and very clean. We used the indoor pool and spa, this was nice and warm and kept in good condition. Overall no issues here a good clean hotel and nice breakfast. There are many hotels together but we picked this one as we were looking for one with a pool.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1126,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1158,1955 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>102</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>192</v>
+      </c>
+      <c r="J25" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" t="s">
+        <v>194</v>
+      </c>
+      <c r="L25" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>196</v>
+      </c>
+      <c r="O25" t="s">
+        <v>108</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>208</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>215</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>222</v>
+      </c>
+      <c r="O29" t="s">
+        <v>223</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J30" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" t="s">
+        <v>229</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>230</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_213.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_213.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="374">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/04/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r604144559-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33329</t>
+  </si>
+  <si>
+    <t>124122</t>
+  </si>
+  <si>
+    <t>604144559</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Not too bad!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mum &amp; I spent a night here. We reserved a room with 2 Queen beds, but one of the beds was a Double size instead of a Queen. But the staff was accommodating. We had requested a room on the ground floor, but since they didn't have one, they gave us a room on the upper floor but close to the elevator. We deeply appreciated that. The breakfast was fine. Overall, it was not too bad. Thank you! </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r595555385-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>595555385</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, updated rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My ground floor king room was very clean and comfortable. Normally do not eat breakfast but did for this review. Normal hotel food. Eggs sausage links. Tortillas and supplies to make breakfast burritos which was different from most hotels. The only negative thing other than the price was the see thru curtains. Not sure what Einstein thought it was a good idea to put see-through curtains on downstairs rooms. Maybe PeeWee Herman. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r522103907-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>522103907</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Close to business &gt; at what cost?</t>
+  </si>
+  <si>
+    <t>This place was close to a business meeting. An associate booked this for a few of us. It has been a long time that I stayed at a property like this.I was not disappointed in my expectations of a dirty old disappointing stay badly worn hotel. I would recommend staying at another property even for a few more dollars that was clean neat and friendly staff.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r502924286-Quality_Inn-Brighton_Colorado.html</t>
   </si>
   <si>
-    <t>33329</t>
-  </si>
-  <si>
-    <t>124122</t>
-  </si>
-  <si>
     <t>502924286</t>
   </si>
   <si>
@@ -177,9 +237,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r497798626-Quality_Inn-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -216,6 +273,55 @@
     <t>We booked this room on the night of June 14, 2017. We showed up to the property around 11:30 pm at night with our 3 kids ranging in age from 6 months to 8 years old. We were tired and ready to check in . We go to the desk and a young gentleman is ready to check us in he is in the  process of looking for our reservation when a young lady interrupts him and says that she will take care of us. I say ok preparing to get my ID and credit card out when she says she can't find the reservation. I give her my confirmation number and show her the reservation on my phone, and she tells me oh ok, I have a room left. She immediately stops says she has to call her manager. I wait for her to call her manager, she tells me her manager says we don't have a reservation, and I should call Choice. I said so are you going to give us that room you have left ? (it was a busy night in town, and I couldn't find anywhere that had any rooms that late at night) she said, No we aren't. We dont have your reservation even though I had a confirmation number. At this point I become upset told her Yes I would be calling Choice because it is now midnight and you refuse to give...We booked this room on the night of June 14, 2017. We showed up to the property around 11:30 pm at night with our 3 kids ranging in age from 6 months to 8 years old. We were tired and ready to check in . We go to the desk and a young gentleman is ready to check us in he is in the  process of looking for our reservation when a young lady interrupts him and says that she will take care of us. I say ok preparing to get my ID and credit card out when she says she can't find the reservation. I give her my confirmation number and show her the reservation on my phone, and she tells me oh ok, I have a room left. She immediately stops says she has to call her manager. I wait for her to call her manager, she tells me her manager says we don't have a reservation, and I should call Choice. I said so are you going to give us that room you have left ? (it was a busy night in town, and I couldn't find anywhere that had any rooms that late at night) she said, No we aren't. We dont have your reservation even though I had a confirmation number. At this point I become upset told her Yes I would be calling Choice because it is now midnight and you refuse to give me the room I reserved. I call Choice and after about 10-15 minutes I convince a supervisor to call the property and ask why they wouldn't give me the room I reserved . At this point the young gentleman was the only one at the desk he talks to Choice and they convince him to give me a room. We come inside to check in,  he gets us checked in..its been a long day so I need to run over to the Walmart across the street to get milk for my baby who at this point is screaming because it is near 1:00 am. We get the milk, drive back to the hotel,  unload our car, make it up the stairs to our room on second floor, open the door, and another persons items are in the room. The lights are on and it looks like somebody else has just been in this room. ( They rented out our room when we were gone!) We get all of our stuff together go downstairs to the lobby to ask why our room we just spent an hour and half arguing over was re rented out , and the desk clerk denied that it was . He offered to come upstairs and remove the guests items for me because at this point we were so so tired and upset.  He removes the other customers items and we are tired so we don't even worry about the used room he put us in.  Thank GOD the beds were still made.In the morning my husband went to the desk to complain and get a receipt for the night, and the desk clerk was just plain rude . She didn't apologize when he told her of the trouble we had , At this point the owner a person of Korean or Chinese descent came from somewhere and my husband tried to explain to her what happened she blew him off, told him she was renting rooms for more money than what were paying last night ...which angered my husband and an argument ensued. The owner and the manager then screamed at him to GET OUT. After all of this and the night we had we expected at least an apology.. not to be told to GET OUT. We told her we would be letting everyone we know and social media know about our experience. She informed him that SHE DID NOT CARE. I think its important to let you all know of the trouble we had because I think this property needs to be EDUCATED on how to properly treat a paying guest with a confirmed reservation.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r440603417-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>440603417</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Great Stay for Great Price</t>
+  </si>
+  <si>
+    <t>I had a great stay here. The staff was very friendly and helpful. My room was clean. I really like the hot breakfast option. You get a lot of value for the price here. Also, the amenities were great: pool, free wifi, nice TV.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r436632286-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>436632286</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>Most unaccommodating place I ever stayed</t>
+  </si>
+  <si>
+    <t>First off I must disclose I am a choice employee and know what can be done and what can't be.
+  I stayed at this hotel for 6 nights. On the second day about 10:00 am I smelled cigarette coming from the bathroom vent, it was bad. I called the front desk. The girl came up and before asking started to spray some kind of chemical. Now I am very sensitive to most sprays and perfumes. I was told I would have to leave the room for several hours so the room could air out. I had a headache from the cigarette smoke and chemicals rest of the day.
+  I was staying here while looking for a place to live, as I had just move to Denver from Florida. This was very inconvenient for me, as I was looking through ads and setting up appointments for showings for the next few days. 
+Two nights later I woke up at 2 am to use the bathroom and I turn on the fan and again I smell cigarette smoke, although this time it was not as bad as the first time. I called the front desk to report it. 
+I was never approached by  any manager about these incidents, nothing not one word.
+I informed the staff that I would be checking out on the 10th and needed a 2 pm check out. Normal check out is noon. They told me that I...First off I must disclose I am a choice employee and know what can be done and what can't be.  I stayed at this hotel for 6 nights. On the second day about 10:00 am I smelled cigarette coming from the bathroom vent, it was bad. I called the front desk. The girl came up and before asking started to spray some kind of chemical. Now I am very sensitive to most sprays and perfumes. I was told I would have to leave the room for several hours so the room could air out. I had a headache from the cigarette smoke and chemicals rest of the day.  I was staying here while looking for a place to live, as I had just move to Denver from Florida. This was very inconvenient for me, as I was looking through ads and setting up appointments for showings for the next few days. Two nights later I woke up at 2 am to use the bathroom and I turn on the fan and again I smell cigarette smoke, although this time it was not as bad as the first time. I called the front desk to report it. I was never approached by  any manager about these incidents, nothing not one word.I informed the staff that I would be checking out on the 10th and needed a 2 pm check out. Normal check out is noon. They told me that I could only have 1 pm,  if I stayed till  2 pm I would be charged for a additional night. I tried to explain to the front desk agent that I am moving this morning and have to take the Uhaul trailer back at 1 pm and want to come back and take a shower and pack my stuff and leave at 2. Nope no way, if I stay till 2 I will be charged for another night. I called guest relations, no help. I rearranged my schedule packed my stuff and checked out. Not being able to shower or anything because I had to get that trailer back on time.As I was checking out I asked for the manager. I was told that the agent doesn't know where the manager is and can't get a hold of her. I had to go track her down myself.I asked if she received any of my complaints about the smoking. She said she did. I said because I was told to leave the room for several hours and you are not going to let me check out 2 hours later than normal I requested a refund for one of the nights.She basically told me she will not do anything for me and to go ahead and to complain to Choice. Today I called and complained to Choice. After telling my story to the guest relations rep the staff there offered me 1/2 off one night. Really? that's the best you can do? I said thanks but no thanks. I informed  guest relations that I will be doing a review on this site.  As I am writing this review, I got a phone call from the Comfort Inn telling me because of all the smoking issues they will issue me a refund for one night. This was only after I said I will write a review. I would not recommend this place for anyone. On top of all the smoking issues the "manager" tried to intimidate me by asking what Choice hotel I work for. Really? How sad. I actually think she was the owner, one of the girls said the owner is the short lady I was talking to. How sad!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>First off I must disclose I am a choice employee and know what can be done and what can't be.
+  I stayed at this hotel for 6 nights. On the second day about 10:00 am I smelled cigarette coming from the bathroom vent, it was bad. I called the front desk. The girl came up and before asking started to spray some kind of chemical. Now I am very sensitive to most sprays and perfumes. I was told I would have to leave the room for several hours so the room could air out. I had a headache from the cigarette smoke and chemicals rest of the day.
+  I was staying here while looking for a place to live, as I had just move to Denver from Florida. This was very inconvenient for me, as I was looking through ads and setting up appointments for showings for the next few days. 
+Two nights later I woke up at 2 am to use the bathroom and I turn on the fan and again I smell cigarette smoke, although this time it was not as bad as the first time. I called the front desk to report it. 
+I was never approached by  any manager about these incidents, nothing not one word.
+I informed the staff that I would be checking out on the 10th and needed a 2 pm check out. Normal check out is noon. They told me that I...First off I must disclose I am a choice employee and know what can be done and what can't be.  I stayed at this hotel for 6 nights. On the second day about 10:00 am I smelled cigarette coming from the bathroom vent, it was bad. I called the front desk. The girl came up and before asking started to spray some kind of chemical. Now I am very sensitive to most sprays and perfumes. I was told I would have to leave the room for several hours so the room could air out. I had a headache from the cigarette smoke and chemicals rest of the day.  I was staying here while looking for a place to live, as I had just move to Denver from Florida. This was very inconvenient for me, as I was looking through ads and setting up appointments for showings for the next few days. Two nights later I woke up at 2 am to use the bathroom and I turn on the fan and again I smell cigarette smoke, although this time it was not as bad as the first time. I called the front desk to report it. I was never approached by  any manager about these incidents, nothing not one word.I informed the staff that I would be checking out on the 10th and needed a 2 pm check out. Normal check out is noon. They told me that I could only have 1 pm,  if I stayed till  2 pm I would be charged for a additional night. I tried to explain to the front desk agent that I am moving this morning and have to take the Uhaul trailer back at 1 pm and want to come back and take a shower and pack my stuff and leave at 2. Nope no way, if I stay till 2 I will be charged for another night. I called guest relations, no help. I rearranged my schedule packed my stuff and checked out. Not being able to shower or anything because I had to get that trailer back on time.As I was checking out I asked for the manager. I was told that the agent doesn't know where the manager is and can't get a hold of her. I had to go track her down myself.I asked if she received any of my complaints about the smoking. She said she did. I said because I was told to leave the room for several hours and you are not going to let me check out 2 hours later than normal I requested a refund for one of the nights.She basically told me she will not do anything for me and to go ahead and to complain to Choice. Today I called and complained to Choice. After telling my story to the guest relations rep the staff there offered me 1/2 off one night. Really? that's the best you can do? I said thanks but no thanks. I informed  guest relations that I will be doing a review on this site.  As I am writing this review, I got a phone call from the Comfort Inn telling me because of all the smoking issues they will issue me a refund for one night. This was only after I said I will write a review. I would not recommend this place for anyone. On top of all the smoking issues the "manager" tried to intimidate me by asking what Choice hotel I work for. Really? How sad. I actually think she was the owner, one of the girls said the owner is the short lady I was talking to. How sad!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r436165558-Quality_Inn-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -231,9 +337,6 @@
     <t>Stayed at the Comfort Inn the first part of November. The property is older and it shows,  first in the lobby with the wallpaper seams coming apart. The hallways are pretty beat up from the housekeeping carts  banging against them over the years. The rooms have a dated look with old furniture and curtains that don't keep the light out. Our room was clean and the bed was comfortable with nice linens. Sits between a highway and railroad tracks so not the quietest location. Had a typical breakfast for these type of hotels which I don't use.MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t>Comfort I, General Manager at Quality Inn, responded to this reviewResponded November 16, 2016</t>
   </si>
   <si>
@@ -285,6 +388,45 @@
     <t>This is an older property which for the most part is well maintained.  The rooms are a bit small, but the beds were comfortable and we slept well.  The rooms do have a refrigerator.  The indoor pool was well maintained and both the pool and spa had lifts for disabled persons.  Breakfast was on par for this type of hotel and good.I would have rated the hotel higher, but we did have some issues at check-in.  The original rooms we were given (212 &amp; 214) both had damaged doors which had been poorly repaired and had a half inch (or wider) opening which ran from the floor up about 18 inches--could easily see into the room and would have been even easier to pry the door open.  The desk clerk was apparently the only one working in the hotel at the time and it took almost 30 minutes to find her and get two replacement rooms.  I had time to walk the first and second floors and these were the only two rooms with damaged doors.  I believe these rooms should have been taken out of service until properly repaired, but they were given to other guests.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r404726411-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>404726411</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Great night.</t>
+  </si>
+  <si>
+    <t>No complaints! We had a room on the back side (opposite the highway) and it was quiet. The room seemed newly redone. Very clean. Comfortable bed. Good wifi. Breakfast better than most. We had a king room which also included a couch which was nice. Would stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>No complaints! We had a room on the back side (opposite the highway) and it was quiet. The room seemed newly redone. Very clean. Comfortable bed. Good wifi. Breakfast better than most. We had a king room which also included a couch which was nice. Would stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r404270191-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>404270191</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Lots of Traffic Noise</t>
+  </si>
+  <si>
+    <t>Our room in this hotel was very nice.  It had been recently renovated, and everything looked good.  It was also very clean.  The only problem was the location.  There was a busy highway with a stoplight on the front, and a busy street on the back.  It was sandwiched between a Sonic and Arby's.  The staff was great, breakfast good, bed comfortable and new linens in the room.  It is also just about 30 minutes from the Denver airport.  The only problem was the traffic noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our room in this hotel was very nice.  It had been recently renovated, and everything looked good.  It was also very clean.  The only problem was the location.  There was a busy highway with a stoplight on the front, and a busy street on the back.  It was sandwiched between a Sonic and Arby's.  The staff was great, breakfast good, bed comfortable and new linens in the room.  It is also just about 30 minutes from the Denver airport.  The only problem was the traffic noise.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r394542008-Quality_Inn-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -303,9 +445,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r390268212-Quality_Inn-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -324,9 +463,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r388090701-Quality_Inn-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -342,7 +478,37 @@
     <t xml:space="preserve">Hotel is located on busy highway. Rooms do not have darkening curtains.  Daybreak is well before 5:30. Our nonsmoking room on third floor is reminiscent of a prior smoking.  Overall hotel is clean, moderately updated, comfortable beds and nice breakfast. Limited front desk staff.   Very courteous and helpful when needed </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r385796434-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>385796434</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Another good stay at a Comfort Hotel -- clean and nice rooms, good breakfast, and a helpful and friendly staff.  We enjoyed our stay and would definitely stay again.Also a working man's place to stay; local pipeliner work crews were staying there during our visit.Would highly recommend a stay here!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r376121175-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>376121175</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>clean comfortable stay</t>
+  </si>
+  <si>
+    <t>hotel is located in a good spot. lots of food places around it and some shopping. close to airport. Staff is super friendly and very polite. Hot breakfast was good. Real scrambled eggs was a big bonus. Hotel is very clean. The only gripe I had is there is no outside place to sit for smokers. Most non smokers would agree that the smoking area should not be next to the door.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r369388664-Quality_Inn-Brighton_Colorado.html</t>
@@ -399,6 +565,42 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r283721023-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>283721023</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>A good place to stay in Brighton</t>
+  </si>
+  <si>
+    <t>We were in town for the weekend and many of the other places in town were booked solid.  The Comfort in was a pleasant surprise.  The rooms were clean and in good shape.  Even though the hotel is on a major highway there was no highway noise.  The rooms in general were quiet.  There is free wifi and free breakfast.  The breakfast has a combination of hot and cold items.  On our last morning there were breakfast burritos that were quite good.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r280993620-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>280993620</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Very good place</t>
+  </si>
+  <si>
+    <t>I was in town Friday and I had stopped at Best Western they had no rooms so they called Comfort Inn and they had 1 left. The lady at bw went on saying how there hotel was really dirty and would not recommend me staying there I took a look for myself and as soon as I walked in the young lady working that afternoon was wonderful! full of smiles, even offered to show me the room and see for myself, the room was neat and not dirty at all! Breakfast had different options on what to eat, very good. I did not see anything dirty about this hotel. thank you all for the service!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in town Friday and I had stopped at Best Western they had no rooms so they called Comfort Inn and they had 1 left. The lady at bw went on saying how there hotel was really dirty and would not recommend me staying there I took a look for myself and as soon as I walked in the young lady working that afternoon was wonderful! full of smiles, even offered to show me the room and see for myself, the room was neat and not dirty at all! Breakfast had different options on what to eat, very good. I did not see anything dirty about this hotel. thank you all for the service!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r274532325-Quality_Inn-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -453,6 +655,42 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r249321286-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>249321286</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>Clean but noisy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed at this Comfort Inn for business. Rooms were very clean. Bathroom is tiny!  Room still wasn't cleaned at 1:30 PM. Road noise from the street below was LOUD! Close to lots of fast food. Service was friendly but won't stay here again because there is no exercise room. </t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r246893117-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>246893117</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>I stayed in December for a family visit, and the cleanliness of my room and front desk service exceeded my expectations.  During my stay, the house keeping staff readily assisted me with my requests.  Additionally, the front desk staff generously guided me with directions and restaurant recommendations.   At Comfort Inn, the staff truly makes an effort to make you feel at home. I am planning to return to this hotel for my next trip to Colorado!</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r233856026-Quality_Inn-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -507,6 +745,39 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r207737422-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>207737422</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Clean and friendly</t>
+  </si>
+  <si>
+    <t>Not a lot of amenities. Complimentary breakfast is just ok. Pool very small. Rooms large and clean. Not within walking distance of restaurants or sights. Ok for a short business stay. Staff is friendly.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r206674902-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>206674902</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>Great service and wonderful hotel experience</t>
+  </si>
+  <si>
+    <t>Comfort Inn in Brighton, Colorado is one of the best places I have stayed.  The front desk service was quick with great customer service.  I also had a problem with my cell phone, and they kindly offered to help and accommodate in any way.  The breakfast was always fresh with hot coffee and a variety of foods.  The room I stayed in was extremely comfortable and recently renovated. I will gladly come back every time I need to stay in Brighton.  I recommend this hotel for anyone staying in Brighton!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r197431935-Quality_Inn-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -558,6 +829,39 @@
     <t>Stayed here for 4 days on a work trip.  The room itself was nice- comfortable bed and a selection of firm and soft pillows to choose from.  Everything was clean.  Nothing fantastic but nothing wrong with it, either.  The breakfast was just okay, a couple hot food choices every morning, cereal, yogurt, waffles, some fruit.  The building itself was quite dated and smelled old, but not stinky or dirty or anything like that. The stay was nice, but I did expect a little more from the flagship brand of choice hotels...</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r191048777-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>191048777</t>
+  </si>
+  <si>
+    <t>01/16/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I stayed 7 Nights.  The bed are comfortable and room are so clean.   Swimming pool and hot  tub are also veryclean. Very friendly and careing staff.  Breakfast was great with hot sausages, waffles and bacons.  Thanks a lot!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r188835236-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>188835236</t>
+  </si>
+  <si>
+    <t>12/28/2013</t>
+  </si>
+  <si>
+    <t>Brighton Visit</t>
+  </si>
+  <si>
+    <t>Had a great experience with this hotel. Very friendly staff, clean room/ bathroom and a pool. The breakfast was really good too. The front desk was very speedy and professional. Would definitely come again.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r182238192-Quality_Inn-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -612,6 +916,45 @@
     <t>This hotel was a bit North of the Interstate.  My first impression was that it seemed there were a lot of people staying there are a regular basis, and not all were there just passing through.  I would guess half of those that stay there are workers that are more full time spending multiple nights there.  Lost of service trucks and pick ups parked in the lot.  Think they are oil oriented workers.The breakfast was adequate. Accomodations average to just a tad better.  Checkin was okay.  Room was clean, but nothing special.  We did not check into the other options, but this one seemed to be adequate, but if there are others available closer to the interstate at or about the same price, I probably would check my other options out.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r175591450-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>175591450</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Great week, stay</t>
+  </si>
+  <si>
+    <t>We stayed here for one week while visiting family in Ft. Lupton, there was 4 of us and one child, very nice big room and very clean. The staff was exceptionally nice. They had a nice patio just off the indoor pool which you could relax and even use a BBQ'r, altho the sun did hit pretty hot and no shade, middle of July. Nice hot breakfast with something different every day. Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r173566215-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>173566215</t>
+  </si>
+  <si>
+    <t>08/22/2013</t>
+  </si>
+  <si>
+    <t>Middle of the road hotel but clean</t>
+  </si>
+  <si>
+    <t>Our room was clean. The bedding according to the lady at the front desk was brand new and I think it was true. The bathroom in our room was very very small, I don't think a big person could fit. The sink and vanity are located outside the bathroom. The shower was clean but the bottom of the tub has no support on the floor and won't last long before it starts to crack. The room was no smoking but the room next to us was also no smoking but the people in it were smoking and the smoke was coming through the bathroom vents.  The night we stayed the hotel was full as a lot of contractors use all the hotels in Brighton due to the local oil boom (which is good for the area, the country and the hotels) The contractors were quiet and did not bother us except for the smokers.  The breakfast was the usual fare, not Waffle House but it was clean and well stocked. Overall it was a decent place to stay but not the best I have been to but far from the worst.  It is located about 7 miles from the InterstateMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Our room was clean. The bedding according to the lady at the front desk was brand new and I think it was true. The bathroom in our room was very very small, I don't think a big person could fit. The sink and vanity are located outside the bathroom. The shower was clean but the bottom of the tub has no support on the floor and won't last long before it starts to crack. The room was no smoking but the room next to us was also no smoking but the people in it were smoking and the smoke was coming through the bathroom vents.  The night we stayed the hotel was full as a lot of contractors use all the hotels in Brighton due to the local oil boom (which is good for the area, the country and the hotels) The contractors were quiet and did not bother us except for the smokers.  The breakfast was the usual fare, not Waffle House but it was clean and well stocked. Overall it was a decent place to stay but not the best I have been to but far from the worst.  It is located about 7 miles from the InterstateMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r171929287-Quality_Inn-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -640,9 +983,6 @@
   </si>
   <si>
     <t>We were traveling back to Texas reference a medical emergency and found this motel by internet search.  We called looking for a room after driving 787 miles today.  The receptionist I talked to was very understanding and considerate to our needs during the initial call and also upon check in.  The room was clean and comfortable.  The pillows were firmer than preferred.  The indoor pool was clean, clear and adequately stocked with clean towels.  Our request of a rollaway bed was attended to right after we got into the room.  The breakfast was the expected eggs, bacon and cereal. Our stay was average.   The bright part of the stay was the receptionist and how helpful she was.  We would stay here again if we were in the area.  A Sonic and a Arby's is next door.MoreShow less</t>
-  </si>
-  <si>
-    <t>July 2013</t>
   </si>
   <si>
     <t>We were traveling back to Texas reference a medical emergency and found this motel by internet search.  We called looking for a room after driving 787 miles today.  The receptionist I talked to was very understanding and considerate to our needs during the initial call and also upon check in.  The room was clean and comfortable.  The pillows were firmer than preferred.  The indoor pool was clean, clear and adequately stocked with clean towels.  Our request of a rollaway bed was attended to right after we got into the room.  The breakfast was the expected eggs, bacon and cereal. Our stay was average.   The bright part of the stay was the receptionist and how helpful she was.  We would stay here again if we were in the area.  A Sonic and a Arby's is next door.More</t>
@@ -675,6 +1015,42 @@
 The location was good for us and allowed us to leave the Denver area in the morning without having to deal with rush...When you approach the hotel from the south, you'll need to turn left onto Bromley Ln. and then left into the hotel.  This will put you at the back door, which is labeled to indicate that you can use it to access the lobby and for check in.  Unfortunately, when we did this, the front desk clerk was taking a break in the front of the hotel.  She could not see us at the registration desk and did not hear us ringing the bell.  We finally called the number on the business card at the desk and she immediately came in an apologized, but at the end of a 12 hour drive, I'm afraid I was still a little underwhelmed.  The room was OK and clean, but we could clearly hear a conversation being carried on in an adjacent room.  The bed was comfortable and we found the area quiet at night.  We didn't hear any train noise, but we were on the side of the hotel facing away from the track.  Breakfast was OK but the orange juice dispenser seemed to have only orange flavored water.  Breakfast items were what you would expect at a Comfort Inn.  Although the breakfast room opend at 5:30 AM, the staff still seemed to be setting it up at 6:30.The location was good for us and allowed us to leave the Denver area in the morning without having to deal with rush hour traffic.  If I went back to Brighton, I think I'd try another hotel, mostly because the staff didn't seem to care whether we were there or not.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r157064359-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>157064359</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Good for the $</t>
+  </si>
+  <si>
+    <t>The lobby was clean and the breakfast buffet was well stocked.  An attendant frequented the breakfast room clean and restock.  The rooms and bathrooms were clean, although a few small stains were noted on the armchair, likely due to a ballpoint pen.  Even though a number of oil pipeline workers were present, the staff cleaned up behind them and their effect on the property was negligible.  The pool and spa were not used during this visit.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r133805058-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>133805058</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>Nice and quiet!</t>
+  </si>
+  <si>
+    <t>For a hotel that was completely booked, it was extremely quiet.  The beds were comfy, too.  The room was clean and met all of our immediate needs.  The towels were a bit on the thin side.  The complimentary breakfast was adequate with ample selection for everyone in my group.  Didn't have time to utilize the pool area, but I peeked in and looked very neat and tidy!  Would not hesitate to stay here again.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r127092107-Quality_Inn-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -733,6 +1109,51 @@
   </si>
   <si>
     <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r73130947-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>73130947</t>
+  </si>
+  <si>
+    <t>07/31/2010</t>
+  </si>
+  <si>
+    <t>Comfortable Beds</t>
+  </si>
+  <si>
+    <t>Adequate rooms with comfortable beds and good breakfast.  Nothing fancy, but nice place to stop for the night.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d124122-r19680128-Quality_Inn-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>19680128</t>
+  </si>
+  <si>
+    <t>09/02/2008</t>
+  </si>
+  <si>
+    <t>Bad value for the price</t>
+  </si>
+  <si>
+    <t>I agree with other reviewers for the smell and the noise. We asked for a non-smoking room but in our room we could smell odors of cigarette and I woke up twice because of the train honking noise. I would for sure not stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>trrl249, General Manager at Quality Inn, responded to this reviewResponded March 26, 2009</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2009</t>
+  </si>
+  <si>
+    <t>I agree with other reviewers for the smell and the noise. We asked for a non-smoking room but in our room we could smell odors of cigarette and I woke up twice because of the train honking noise. I would for sure not stay there again.More</t>
   </si>
 </sst>
 </file>
@@ -1275,16 +1696,12 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1328,13 +1745,13 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1364,45 +1781,41 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
         <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1425,7 +1838,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1434,49 +1847,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>72</v>
-      </c>
-      <c r="X5" t="s">
-        <v>73</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1492,31 +1899,31 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
-      </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
@@ -1530,14 +1937,10 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>72</v>
-      </c>
-      <c r="X6" t="s">
-        <v>73</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1553,31 +1956,31 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
         <v>82</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>83</v>
       </c>
-      <c r="J7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" t="s">
-        <v>86</v>
-      </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
@@ -1587,12 +1990,10 @@
       <c r="R7" t="n">
         <v>3</v>
       </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1600,7 +2001,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1616,48 +2017,54 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
         <v>89</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>90</v>
       </c>
-      <c r="J8" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>94</v>
-      </c>
       <c r="O8" t="s">
-        <v>95</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -1673,38 +2080,36 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
         <v>96</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" t="s">
-        <v>102</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="n">
@@ -1712,7 +2117,7 @@
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1720,7 +2125,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -1736,7 +2141,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1745,39 +2150,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" t="s">
+        <v>104</v>
+      </c>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1793,54 +2208,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
         <v>109</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>110</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>111</v>
-      </c>
-      <c r="K11" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" t="s">
-        <v>113</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>114</v>
       </c>
       <c r="O11" t="s">
         <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>103</v>
+      </c>
+      <c r="X11" t="s">
+        <v>104</v>
+      </c>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -1856,46 +2269,46 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
         <v>115</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>116</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>117</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
         <v>118</v>
       </c>
-      <c r="L12" t="s">
-        <v>119</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>120</v>
-      </c>
       <c r="O12" t="s">
-        <v>108</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1919,54 +2332,52 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>121</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>122</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>123</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>124</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" t="s">
         <v>125</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>126</v>
-      </c>
-      <c r="O13" t="s">
-        <v>102</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>103</v>
+      </c>
+      <c r="X13" t="s">
+        <v>104</v>
+      </c>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -2003,18 +2414,20 @@
         <v>131</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
       </c>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
@@ -2024,10 +2437,14 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X14" t="s">
+        <v>104</v>
+      </c>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
@@ -2066,31 +2483,25 @@
       <c r="M15" t="n">
         <v>5</v>
       </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -2127,19 +2538,21 @@
         <v>143</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
         <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -2188,26 +2601,20 @@
         <v>149</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
@@ -2230,54 +2637,48 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>151</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>152</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>153</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>154</v>
       </c>
-      <c r="L18" t="s">
-        <v>155</v>
-      </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
@@ -2293,46 +2694,46 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
         <v>157</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>159</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>160</v>
       </c>
-      <c r="L19" t="s">
-        <v>161</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>162</v>
-      </c>
       <c r="O19" t="s">
-        <v>102</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2340,7 +2741,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
@@ -2356,50 +2757,46 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
         <v>163</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>164</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>165</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>166</v>
       </c>
-      <c r="L20" t="s">
-        <v>167</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>168</v>
-      </c>
       <c r="O20" t="s">
-        <v>102</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2407,7 +2804,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
@@ -2423,47 +2820,43 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
         <v>169</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>170</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>171</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>172</v>
       </c>
-      <c r="L21" t="s">
-        <v>173</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>174</v>
-      </c>
       <c r="O21" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -2474,7 +2867,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
@@ -2490,50 +2883,46 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
         <v>176</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>177</v>
       </c>
-      <c r="J22" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>178</v>
       </c>
-      <c r="L22" t="s">
-        <v>179</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>174</v>
-      </c>
       <c r="O22" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
         <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2541,7 +2930,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
@@ -2557,50 +2946,46 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
         <v>180</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>181</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>182</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>183</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
         <v>184</v>
       </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>185</v>
-      </c>
       <c r="O23" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
         <v>4</v>
       </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2608,7 +2993,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -2624,41 +3009,45 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
         <v>186</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>187</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>188</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>189</v>
       </c>
-      <c r="L24" t="s">
-        <v>190</v>
-      </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
@@ -2702,29 +3091,23 @@
         <v>195</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
         <v>196</v>
       </c>
       <c r="O25" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2732,7 +3115,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
@@ -2748,42 +3131,42 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
         <v>198</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>199</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>200</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>201</v>
       </c>
-      <c r="L26" t="s">
-        <v>202</v>
-      </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s"/>
       <c r="O26" t="s"/>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R26" t="n">
         <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
@@ -2832,25 +3215,19 @@
         <v>207</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
         <v>208</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -2862,7 +3239,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
@@ -2878,34 +3255,34 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
         <v>210</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>211</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>212</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>213</v>
-      </c>
-      <c r="L28" t="s">
-        <v>214</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -2919,7 +3296,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
@@ -2935,43 +3312,39 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" t="s">
         <v>217</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>218</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>219</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>220</v>
       </c>
-      <c r="L29" t="s">
-        <v>221</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>222</v>
-      </c>
       <c r="O29" t="s">
-        <v>223</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -2986,7 +3359,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
@@ -3002,48 +3375,54 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s">
         <v>225</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
         <v>226</v>
-      </c>
-      <c r="J30" t="s">
-        <v>227</v>
-      </c>
-      <c r="K30" t="s">
-        <v>228</v>
-      </c>
-      <c r="L30" t="s">
-        <v>229</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" t="s">
-        <v>230</v>
       </c>
       <c r="O30" t="s">
         <v>53</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31">
@@ -3059,46 +3438,46 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" t="s">
         <v>231</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>232</v>
-      </c>
-      <c r="J31" t="s">
-        <v>233</v>
-      </c>
-      <c r="K31" t="s">
-        <v>234</v>
-      </c>
-      <c r="L31" t="s">
-        <v>235</v>
-      </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
       <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3106,7 +3485,1500 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" t="s">
         <v>235</v>
+      </c>
+      <c r="K32" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>238</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" t="s">
+        <v>241</v>
+      </c>
+      <c r="K33" t="s">
+        <v>242</v>
+      </c>
+      <c r="L33" t="s">
+        <v>243</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>244</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" t="s">
+        <v>247</v>
+      </c>
+      <c r="K34" t="s">
+        <v>248</v>
+      </c>
+      <c r="L34" t="s">
+        <v>249</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>244</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>251</v>
+      </c>
+      <c r="J35" t="s">
+        <v>252</v>
+      </c>
+      <c r="K35" t="s">
+        <v>253</v>
+      </c>
+      <c r="L35" t="s">
+        <v>254</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>255</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>256</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>257</v>
+      </c>
+      <c r="J36" t="s">
+        <v>258</v>
+      </c>
+      <c r="K36" t="s">
+        <v>259</v>
+      </c>
+      <c r="L36" t="s">
+        <v>260</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>261</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" t="s">
+        <v>265</v>
+      </c>
+      <c r="L37" t="s">
+        <v>266</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>261</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>267</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>268</v>
+      </c>
+      <c r="J38" t="s">
+        <v>269</v>
+      </c>
+      <c r="K38" t="s">
+        <v>270</v>
+      </c>
+      <c r="L38" t="s">
+        <v>271</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>255</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J39" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39" t="s">
+        <v>276</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>277</v>
+      </c>
+      <c r="O39" t="s">
+        <v>96</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" t="s">
+        <v>282</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>283</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>285</v>
+      </c>
+      <c r="J41" t="s">
+        <v>286</v>
+      </c>
+      <c r="K41" t="s">
+        <v>287</v>
+      </c>
+      <c r="L41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>283</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>290</v>
+      </c>
+      <c r="J42" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" t="s">
+        <v>292</v>
+      </c>
+      <c r="L42" t="s">
+        <v>293</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>294</v>
+      </c>
+      <c r="O42" t="s">
+        <v>125</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>297</v>
+      </c>
+      <c r="J43" t="s">
+        <v>298</v>
+      </c>
+      <c r="K43" t="s">
+        <v>299</v>
+      </c>
+      <c r="L43" t="s">
+        <v>300</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>301</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>302</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>303</v>
+      </c>
+      <c r="J44" t="s">
+        <v>304</v>
+      </c>
+      <c r="K44" t="s">
+        <v>305</v>
+      </c>
+      <c r="L44" t="s">
+        <v>306</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>307</v>
+      </c>
+      <c r="O44" t="s">
+        <v>125</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>309</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>310</v>
+      </c>
+      <c r="J45" t="s">
+        <v>311</v>
+      </c>
+      <c r="K45" t="s">
+        <v>312</v>
+      </c>
+      <c r="L45" t="s">
+        <v>313</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>314</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>315</v>
+      </c>
+      <c r="J46" t="s">
+        <v>316</v>
+      </c>
+      <c r="K46" t="s">
+        <v>317</v>
+      </c>
+      <c r="L46" t="s">
+        <v>318</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>301</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>320</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>321</v>
+      </c>
+      <c r="J47" t="s">
+        <v>322</v>
+      </c>
+      <c r="K47" t="s">
+        <v>323</v>
+      </c>
+      <c r="L47" t="s">
+        <v>324</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>325</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>327</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>328</v>
+      </c>
+      <c r="J48" t="s">
+        <v>329</v>
+      </c>
+      <c r="K48" t="s">
+        <v>330</v>
+      </c>
+      <c r="L48" t="s">
+        <v>331</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>332</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>333</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>334</v>
+      </c>
+      <c r="J49" t="s">
+        <v>335</v>
+      </c>
+      <c r="K49" t="s">
+        <v>336</v>
+      </c>
+      <c r="L49" t="s">
+        <v>337</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>338</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>339</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>340</v>
+      </c>
+      <c r="J50" t="s">
+        <v>341</v>
+      </c>
+      <c r="K50" t="s">
+        <v>342</v>
+      </c>
+      <c r="L50" t="s">
+        <v>343</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>344</v>
+      </c>
+      <c r="O50" t="s">
+        <v>345</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>347</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>348</v>
+      </c>
+      <c r="J51" t="s">
+        <v>349</v>
+      </c>
+      <c r="K51" t="s">
+        <v>350</v>
+      </c>
+      <c r="L51" t="s">
+        <v>351</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>352</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>353</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>354</v>
+      </c>
+      <c r="J52" t="s">
+        <v>355</v>
+      </c>
+      <c r="K52" t="s">
+        <v>356</v>
+      </c>
+      <c r="L52" t="s">
+        <v>357</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>358</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>359</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>360</v>
+      </c>
+      <c r="J53" t="s">
+        <v>361</v>
+      </c>
+      <c r="K53" t="s">
+        <v>362</v>
+      </c>
+      <c r="L53" t="s">
+        <v>363</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>364</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33206</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>365</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>366</v>
+      </c>
+      <c r="J54" t="s">
+        <v>367</v>
+      </c>
+      <c r="K54" t="s">
+        <v>368</v>
+      </c>
+      <c r="L54" t="s">
+        <v>369</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>370</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>371</v>
+      </c>
+      <c r="X54" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
